--- a/Bank/中医内科学/胃/Bank_腹痛.xlsx
+++ b/Bank/中医内科学/胃/Bank_腹痛.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>腹痛的病位在</t>
   </si>
@@ -331,12 +342,18 @@
   </si>
   <si>
     <t>诊断：①腹痛；②便秘。辨证：脾肾阳气虚弱，伤及脾肾之阴。分析：因患者几年来冬天发作腹痛，今腹痛又发，故诊为腹痛。因大便干燥，排便困难，故将便秘作为第二诊断。由于年高阴气自半，并罹患中虚脏寒之疾，故近几年每于冬天寒冷之季发作腹痛，服温中补虚、缓急止痛的黄芪建中汤加人参其痛可止；后因久病由中焦损及于肾，而成脾肾两虚之候，故再施温中补虚的黄芪建中汤加人参治疗，只补中未补肾，其痛则不止；据此证由中虚脏寒之疾而来，腹痛喜按，持续作痛（阳虚生内寒，寒凝所致），舌质暗苔少，脉沉关尺弱，则病偏脾肾阳气虚，故服养阴理气类药物大便则由干转稀，以其养阴则滋腻，理气则耗气也；然早晨口干，大便干，停药后又干，排便困难，属阳虚而伤及脾肾之阴，是疾重点在下焦，胃尚无恙，故饮食无影响，进食冷热食物皆可。形成本病的病机是脾肾阳气虚弱兼阴虚，脏腑经络失养，不通则痛；脾肾阳气虚弱，肠失温润，推动无力，大肠传导功能失常。治法：温补脾肾，兼养阴润肠。方药：黄芪建中汤合济川煎加减。黄芪30g桂枝10g白芍15g党参10g补骨脂15g肉双蓉10g当归10g小茴10g 九香虫10g 甘草5g制硫黄2g （装胶囊服）</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,12 +668,12 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -672,6 +689,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>52</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -682,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -698,6 +718,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -708,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -724,6 +747,9 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -750,6 +776,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="G4">
+        <v>52</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -760,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -776,6 +805,9 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -786,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -802,6 +834,9 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
+      <c r="G6">
+        <v>52</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -812,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -828,6 +863,9 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7">
+        <v>52</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -854,6 +892,9 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -864,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -880,6 +921,9 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
+      <c r="G9">
+        <v>52</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -890,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -906,6 +950,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -916,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -932,6 +979,9 @@
       <c r="F11" t="s">
         <v>47</v>
       </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -942,7 +992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -958,6 +1008,9 @@
       <c r="F12" t="s">
         <v>47</v>
       </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -968,7 +1021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -984,6 +1037,9 @@
       <c r="F13" t="s">
         <v>53</v>
       </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
       <c r="H13" t="s">
         <v>88</v>
       </c>
@@ -997,7 +1053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -1013,6 +1069,9 @@
       <c r="F14" t="s">
         <v>59</v>
       </c>
+      <c r="G14">
+        <v>52</v>
+      </c>
       <c r="H14" t="s">
         <v>88</v>
       </c>
@@ -1026,7 +1085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -1042,6 +1101,9 @@
       <c r="F15" t="s">
         <v>65</v>
       </c>
+      <c r="G15">
+        <v>52</v>
+      </c>
       <c r="H15" t="s">
         <v>88</v>
       </c>
@@ -1055,7 +1117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -1071,6 +1133,9 @@
       <c r="F16" t="s">
         <v>68</v>
       </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
       <c r="H16" t="s">
         <v>88</v>
       </c>
@@ -1084,7 +1149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>71</v>
       </c>
@@ -1100,6 +1165,9 @@
       <c r="F17" t="s">
         <v>75</v>
       </c>
+      <c r="G17">
+        <v>52</v>
+      </c>
       <c r="H17" t="s">
         <v>88</v>
       </c>
@@ -1113,7 +1181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -1129,6 +1197,9 @@
       <c r="F18" t="s">
         <v>80</v>
       </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
@@ -1142,7 +1213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -1158,6 +1229,9 @@
       <c r="F19" t="s">
         <v>86</v>
       </c>
+      <c r="G19">
+        <v>52</v>
+      </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
@@ -1171,12 +1245,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>93</v>
       </c>
+      <c r="G20">
+        <v>52</v>
+      </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1185,10 +1262,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>94</v>
       </c>
+      <c r="G21">
+        <v>52</v>
+      </c>
       <c r="H21" t="s">
         <v>98</v>
       </c>
@@ -1199,10 +1279,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>95</v>
       </c>
+      <c r="G22">
+        <v>52</v>
+      </c>
       <c r="H22" t="s">
         <v>98</v>
       </c>
@@ -1213,10 +1296,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>96</v>
       </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
       <c r="H23" t="s">
         <v>98</v>
       </c>
@@ -1227,12 +1313,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>99</v>
       </c>
+      <c r="G24">
+        <v>52</v>
+      </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J24">
         <v>1</v>
